--- a/statistics/Statistics.xlsx
+++ b/statistics/Statistics.xlsx
@@ -6,15 +6,36 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Generator" r:id="rId3" sheetId="1"/>
+    <sheet name="AscendingGenerator" r:id="rId3" sheetId="1"/>
+    <sheet name="UnsortedGenerator" r:id="rId4" sheetId="2"/>
+    <sheet name="DescendingGenerator" r:id="rId5" sheetId="3"/>
+    <sheet name="AscendingWithLastRandomGenerato" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>Sorting method</t>
+  </si>
+  <si>
+    <t>QuickSort</t>
+  </si>
+  <si>
+    <t>BubbleSinkingSort</t>
+  </si>
+  <si>
+    <t>MergeSort</t>
+  </si>
+  <si>
+    <t>NoSorting</t>
+  </si>
+  <si>
+    <t>JavaSort</t>
+  </si>
+  <si>
+    <t>BubbleFloatingUpSort</t>
   </si>
 </sst>
 </file>
@@ -69,10 +90,599 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>100000.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>160464.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>134531.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>916594.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4396166.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.2462096E7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>205039.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>300263.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8677657.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.62515439E8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.361547585E10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.25890985E8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>781658.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5361386.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.7961515E7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.20752952E8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>114271.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>53489.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>179105.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1517527.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.7264952E7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1083542.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>115892.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>632944.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5961103.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.475034E7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>283245.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>870805.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.4236788E7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.1869714E8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.5228727482E10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>96846.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>55515.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>286486.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1509017.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.5249012E7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>93199.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>60782.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>180321.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1494835.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.4810165E7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>107382.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>77396.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>225704.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1858716.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.4712914E7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>101304.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>47005.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>178294.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1654084.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.5704068E7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>121564.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65240.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>190855.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1526441.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.7648689E7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>136152.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>51462.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>178294.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1488351.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.462012E7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>232998.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>251638.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>511785.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6990752.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.9912766E7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>145877.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>107787.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2681301.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.42604845E8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.5198453136E10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>147093.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87931.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>386979.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3767274.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.0353638E7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>155197.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>79827.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>260552.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1828730.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.9243611E7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>332680.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>295401.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>932803.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4238538.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.8156844E7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>110219.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>78206.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2648073.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.54334168E8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.5186080333E10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>91579.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>85906.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>341596.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2840550.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.7064111E7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>78611.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>107787.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3017628.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.47199972E8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.4050687E10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>328223.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>194908.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>517053.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.0757621E7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.9238084E7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>74155.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>70913.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>200176.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1554807.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.5271704E7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>69697.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>101709.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>323360.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2488824.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.5284136E7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>108192.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>153576.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3535492.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.55530766E8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.6893034453E10</v>
       </c>
     </row>
   </sheetData>
